--- a/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>15,47</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,44</t>
+          <t>14,62; 17,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,96</t>
+          <t>13,11; 16,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,31</t>
+          <t>14,31; 16,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,91</t>
+          <t>9,32; 12,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 12,38</t>
+          <t>9,63; 12,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 12,11</t>
+          <t>9,89; 12,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>11,71</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,69</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>11,73</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 13,03</t>
+          <t>10,58; 13,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 12,54</t>
+          <t>10,93; 12,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 12,48</t>
+          <t>11,06; 12,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,55</t>
+          <t>18,44</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 19,42</t>
+          <t>16,96; 19,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 19,83</t>
+          <t>17,65; 19,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 19,29</t>
+          <t>17,56; 19,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,39</t>
+          <t>25,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,96</t>
+          <t>25,94</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 26,79</t>
+          <t>23,88; 26,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,59; 27,53</t>
+          <t>25,6; 27,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,2; 26,86</t>
+          <t>25,19; 26,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,13</t>
+          <t>29,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,59</t>
+          <t>28,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,02</t>
+          <t>28,98</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,99; 34,51</t>
+          <t>28,02; 31,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,59; 37,04</t>
+          <t>26,15; 32,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,27; 35,49</t>
+          <t>26,46; 31,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>37,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>40,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>39,56</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,8; 21,15</t>
+          <t>36,01; 40,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,71; 23,06</t>
+          <t>39,04; 42,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,05; 22,04</t>
+          <t>38,36; 40,83</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20,3</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22,43</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 20,97</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 23,27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 22,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 17,55</t>
+          <t>14,65; 17,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,06</t>
+          <t>13,12; 16,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,51</t>
+          <t>14,32; 16,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,88</t>
+          <t>9,24; 12,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,47</t>
+          <t>9,61; 12,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,15</t>
+          <t>9,92; 12,17</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 13,08</t>
+          <t>10,55; 12,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 12,56</t>
+          <t>10,91; 12,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 12,51</t>
+          <t>11,03; 12,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 19,4</t>
+          <t>16,93; 19,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 19,74</t>
+          <t>17,67; 19,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 19,15</t>
+          <t>17,68; 19,22</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 26,75</t>
+          <t>24,08; 26,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 27,58</t>
+          <t>25,59; 27,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,19; 26,86</t>
+          <t>25,18; 26,86</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,02; 31,17</t>
+          <t>27,95; 31,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,8</t>
+          <t>26,15; 32,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,46; 31,23</t>
+          <t>26,63; 31,31</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,01; 40,05</t>
+          <t>35,82; 39,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,04; 42,17</t>
+          <t>39,07; 42,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,36; 40,83</t>
+          <t>38,29; 40,87</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,6; 20,97</t>
+          <t>19,58; 21,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,73; 23,27</t>
+          <t>21,74; 23,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,97; 22,18</t>
+          <t>20,98; 22,02</t>
         </is>
       </c>
     </row>
